--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Egor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Egor/dickpussy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70ACCD67-B794-9F43-84C7-93FB46E06744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8310F9-7138-CF41-B711-848A323DF82F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="440" windowWidth="28240" windowHeight="16600" xr2:uid="{1C9DFA8B-D186-5F47-9923-71C7617F9DCF}"/>
+    <workbookView xWindow="280" yWindow="440" windowWidth="28240" windowHeight="16580" xr2:uid="{1C9DFA8B-D186-5F47-9923-71C7617F9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF5F930-25BD-3F47-9887-0CD8E512FE4C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,6 +410,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
